--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Spon2-Itgam.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Spon2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Itgam</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H2">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I2">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J2">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>82.353359479971</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N2">
-        <v>82.353359479971</v>
+        <v>0.047147</v>
       </c>
       <c r="O2">
-        <v>0.2618053948890064</v>
+        <v>4.352450124452221E-05</v>
       </c>
       <c r="P2">
-        <v>0.2618053948890064</v>
+        <v>4.352450124452222E-05</v>
       </c>
       <c r="Q2">
-        <v>12.50351480884861</v>
+        <v>0.002398954608222222</v>
       </c>
       <c r="R2">
-        <v>12.50351480884861</v>
+        <v>0.021590591474</v>
       </c>
       <c r="S2">
-        <v>0.01261507646718823</v>
+        <v>1.779988660921206E-06</v>
       </c>
       <c r="T2">
-        <v>0.01261507646718823</v>
+        <v>1.779988660921207E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H3">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I3">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J3">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>75.7452174093864</v>
+        <v>121.5707266666667</v>
       </c>
       <c r="N3">
-        <v>75.7452174093864</v>
+        <v>364.71218</v>
       </c>
       <c r="O3">
-        <v>0.2407977850574632</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="P3">
-        <v>0.2407977850574632</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="Q3">
-        <v>11.50021630639195</v>
+        <v>18.55744723706222</v>
       </c>
       <c r="R3">
-        <v>11.50021630639195</v>
+        <v>167.01702513356</v>
       </c>
       <c r="S3">
-        <v>0.01160282611027665</v>
+        <v>0.01376935000954152</v>
       </c>
       <c r="T3">
-        <v>0.01160282611027665</v>
+        <v>0.01376935000954152</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H4">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I4">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J4">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>156.460867215624</v>
+        <v>80.471891</v>
       </c>
       <c r="N4">
-        <v>156.460867215624</v>
+        <v>241.415673</v>
       </c>
       <c r="O4">
-        <v>0.4973968200535305</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="P4">
-        <v>0.4973968200535305</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="Q4">
-        <v>23.7550815484539</v>
+        <v>12.28381956944067</v>
       </c>
       <c r="R4">
-        <v>23.7550815484539</v>
+        <v>110.554376124966</v>
       </c>
       <c r="S4">
-        <v>0.0239670344538612</v>
+        <v>0.009114411532200602</v>
       </c>
       <c r="T4">
-        <v>0.0239670344538612</v>
+        <v>0.009114411532200604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.32270397629794</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H5">
-        <v>2.32270397629794</v>
+        <v>0.457942</v>
       </c>
       <c r="I5">
-        <v>0.7371474484818903</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J5">
-        <v>0.7371474484818903</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.353359479971</v>
+        <v>159.017985</v>
       </c>
       <c r="N5">
-        <v>82.353359479971</v>
+        <v>477.053955</v>
       </c>
       <c r="O5">
-        <v>0.2618053948890064</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="P5">
-        <v>0.2618053948890064</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="Q5">
-        <v>191.2824755256223</v>
+        <v>24.27367136229</v>
       </c>
       <c r="R5">
-        <v>191.2824755256223</v>
+        <v>218.46304226061</v>
       </c>
       <c r="S5">
-        <v>0.1929891788412248</v>
+        <v>0.01801070334374648</v>
       </c>
       <c r="T5">
-        <v>0.1929891788412248</v>
+        <v>0.01801070334374649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.32270397629794</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H6">
-        <v>2.32270397629794</v>
+        <v>7.62577</v>
       </c>
       <c r="I6">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J6">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>75.7452174093864</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N6">
-        <v>75.7452174093864</v>
+        <v>0.047147</v>
       </c>
       <c r="O6">
-        <v>0.2407977850574632</v>
+        <v>4.352450124452221E-05</v>
       </c>
       <c r="P6">
-        <v>0.2407977850574632</v>
+        <v>4.352450124452222E-05</v>
       </c>
       <c r="Q6">
-        <v>175.9337176623337</v>
+        <v>0.03994801979888889</v>
       </c>
       <c r="R6">
-        <v>175.9337176623337</v>
+        <v>0.35953217819</v>
       </c>
       <c r="S6">
-        <v>0.1775034728551996</v>
+        <v>2.964083689810743E-05</v>
       </c>
       <c r="T6">
-        <v>0.1775034728551996</v>
+        <v>2.964083689810743E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.32270397629794</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H7">
-        <v>2.32270397629794</v>
+        <v>7.62577</v>
       </c>
       <c r="I7">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J7">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>156.460867215624</v>
+        <v>121.5707266666667</v>
       </c>
       <c r="N7">
-        <v>156.460867215624</v>
+        <v>364.71218</v>
       </c>
       <c r="O7">
-        <v>0.4973968200535305</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="P7">
-        <v>0.4973968200535305</v>
+        <v>0.3366898367298536</v>
       </c>
       <c r="Q7">
-        <v>363.4122784167539</v>
+        <v>309.0234667642889</v>
       </c>
       <c r="R7">
-        <v>363.4122784167539</v>
+        <v>2781.2112008786</v>
       </c>
       <c r="S7">
-        <v>0.366654796785466</v>
+        <v>0.2292908189732793</v>
       </c>
       <c r="T7">
-        <v>0.366654796785466</v>
+        <v>0.2292908189732792</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6764037816012261</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H8">
-        <v>0.6764037816012261</v>
+        <v>7.62577</v>
       </c>
       <c r="I8">
-        <v>0.2146676144867836</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J8">
-        <v>0.2146676144867836</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.353359479971</v>
+        <v>80.471891</v>
       </c>
       <c r="N8">
-        <v>82.353359479971</v>
+        <v>241.415673</v>
       </c>
       <c r="O8">
-        <v>0.2618053948890064</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="P8">
-        <v>0.2618053948890064</v>
+        <v>0.2228667096514236</v>
       </c>
       <c r="Q8">
-        <v>55.70412377981756</v>
+        <v>204.5533774103567</v>
       </c>
       <c r="R8">
-        <v>55.70412377981756</v>
+        <v>1840.98039669321</v>
       </c>
       <c r="S8">
-        <v>0.05620113958059339</v>
+        <v>0.1517755655299348</v>
       </c>
       <c r="T8">
-        <v>0.05620113958059339</v>
+        <v>0.1517755655299348</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6764037816012261</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H9">
-        <v>0.6764037816012261</v>
+        <v>7.62577</v>
       </c>
       <c r="I9">
-        <v>0.2146676144867836</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J9">
-        <v>0.2146676144867836</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>75.7452174093864</v>
+        <v>159.017985</v>
       </c>
       <c r="N9">
-        <v>75.7452174093864</v>
+        <v>477.053955</v>
       </c>
       <c r="O9">
-        <v>0.2407977850574632</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="P9">
-        <v>0.2407977850574632</v>
+        <v>0.4403999291174782</v>
       </c>
       <c r="Q9">
-        <v>51.23435149391598</v>
+        <v>404.21152649115</v>
       </c>
       <c r="R9">
-        <v>51.23435149391598</v>
+        <v>3637.90373842035</v>
       </c>
       <c r="S9">
-        <v>0.05169148609198689</v>
+        <v>0.2999189444026572</v>
       </c>
       <c r="T9">
-        <v>0.05169148609198689</v>
+        <v>0.2999189444026572</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.05304766666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.159143</v>
+      </c>
+      <c r="I10">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="J10">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.01571566666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.047147</v>
+      </c>
+      <c r="O10">
+        <v>4.352450124452221E-05</v>
+      </c>
+      <c r="P10">
+        <v>4.352450124452222E-05</v>
+      </c>
+      <c r="Q10">
+        <v>0.0008336794467777777</v>
+      </c>
+      <c r="R10">
+        <v>0.007503115020999999</v>
+      </c>
+      <c r="S10">
+        <v>6.185777575871694E-07</v>
+      </c>
+      <c r="T10">
+        <v>6.185777575871695E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.05304766666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.159143</v>
+      </c>
+      <c r="I11">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="J11">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>121.5707266666667</v>
+      </c>
+      <c r="N11">
+        <v>364.71218</v>
+      </c>
+      <c r="O11">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="P11">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="Q11">
+        <v>6.449043384637776</v>
+      </c>
+      <c r="R11">
+        <v>58.04139046173999</v>
+      </c>
+      <c r="S11">
+        <v>0.004785094331964453</v>
+      </c>
+      <c r="T11">
+        <v>0.004785094331964453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.05304766666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.159143</v>
+      </c>
+      <c r="I12">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="J12">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>80.471891</v>
+      </c>
+      <c r="N12">
+        <v>241.415673</v>
+      </c>
+      <c r="O12">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="P12">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="Q12">
+        <v>4.268846049804333</v>
+      </c>
+      <c r="R12">
+        <v>38.419614448239</v>
+      </c>
+      <c r="S12">
+        <v>0.003167420316260575</v>
+      </c>
+      <c r="T12">
+        <v>0.003167420316260575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.05304766666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.159143</v>
+      </c>
+      <c r="I13">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="J13">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>159.017985</v>
+      </c>
+      <c r="N13">
+        <v>477.053955</v>
+      </c>
+      <c r="O13">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="P13">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="Q13">
+        <v>8.435533062284998</v>
+      </c>
+      <c r="R13">
+        <v>75.91979756056499</v>
+      </c>
+      <c r="S13">
+        <v>0.006259040145332479</v>
+      </c>
+      <c r="T13">
+        <v>0.006259040145332479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.428537</v>
+      </c>
+      <c r="I14">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J14">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.01571566666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.047147</v>
+      </c>
+      <c r="O14">
+        <v>4.352450124452221E-05</v>
+      </c>
+      <c r="P14">
+        <v>4.352450124452222E-05</v>
+      </c>
+      <c r="Q14">
+        <v>0.002244914882111111</v>
+      </c>
+      <c r="R14">
+        <v>0.020204233939</v>
+      </c>
+      <c r="S14">
+        <v>1.665693473813695E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.665693473813695E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.428537</v>
+      </c>
+      <c r="I15">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J15">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>121.5707266666667</v>
+      </c>
+      <c r="N15">
+        <v>364.71218</v>
+      </c>
+      <c r="O15">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="P15">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="Q15">
+        <v>17.36585149785111</v>
+      </c>
+      <c r="R15">
+        <v>156.29266348066</v>
+      </c>
+      <c r="S15">
+        <v>0.01288520368308409</v>
+      </c>
+      <c r="T15">
+        <v>0.01288520368308409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.428537</v>
+      </c>
+      <c r="I16">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J16">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>80.471891</v>
+      </c>
+      <c r="N16">
+        <v>241.415673</v>
+      </c>
+      <c r="O16">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="P16">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="Q16">
+        <v>11.49506091782233</v>
+      </c>
+      <c r="R16">
+        <v>103.455548260401</v>
+      </c>
+      <c r="S16">
+        <v>0.008529164336913081</v>
+      </c>
+      <c r="T16">
+        <v>0.008529164336913081</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.428537</v>
+      </c>
+      <c r="I17">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J17">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>159.017985</v>
+      </c>
+      <c r="N17">
+        <v>477.053955</v>
+      </c>
+      <c r="O17">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="P17">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="Q17">
+        <v>22.715030079315</v>
+      </c>
+      <c r="R17">
+        <v>204.435270713835</v>
+      </c>
+      <c r="S17">
+        <v>0.01685421467962992</v>
+      </c>
+      <c r="T17">
+        <v>0.01685421467962992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H18">
+        <v>2.526262</v>
+      </c>
+      <c r="I18">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J18">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.01571566666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.047147</v>
+      </c>
+      <c r="O18">
+        <v>4.352450124452221E-05</v>
+      </c>
+      <c r="P18">
+        <v>4.352450124452222E-05</v>
+      </c>
+      <c r="Q18">
+        <v>0.01323396383488889</v>
+      </c>
+      <c r="R18">
+        <v>0.119105674514</v>
+      </c>
+      <c r="S18">
+        <v>9.81940445409272E-06</v>
+      </c>
+      <c r="T18">
+        <v>9.819404454092722E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H19">
+        <v>2.526262</v>
+      </c>
+      <c r="I19">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J19">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>121.5707266666667</v>
+      </c>
+      <c r="N19">
+        <v>364.71218</v>
+      </c>
+      <c r="O19">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="P19">
+        <v>0.3366898367298536</v>
+      </c>
+      <c r="Q19">
+        <v>102.3731690301289</v>
+      </c>
+      <c r="R19">
+        <v>921.3585212711599</v>
+      </c>
+      <c r="S19">
+        <v>0.07595936973198435</v>
+      </c>
+      <c r="T19">
+        <v>0.07595936973198435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.6764037816012261</v>
-      </c>
-      <c r="H10">
-        <v>0.6764037816012261</v>
-      </c>
-      <c r="I10">
-        <v>0.2146676144867836</v>
-      </c>
-      <c r="J10">
-        <v>0.2146676144867836</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>156.460867215624</v>
-      </c>
-      <c r="N10">
-        <v>156.460867215624</v>
-      </c>
-      <c r="O10">
-        <v>0.4973968200535305</v>
-      </c>
-      <c r="P10">
-        <v>0.4973968200535305</v>
-      </c>
-      <c r="Q10">
-        <v>105.8307222572554</v>
-      </c>
-      <c r="R10">
-        <v>105.8307222572554</v>
-      </c>
-      <c r="S10">
-        <v>0.1067749888142034</v>
-      </c>
-      <c r="T10">
-        <v>0.1067749888142034</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H20">
+        <v>2.526262</v>
+      </c>
+      <c r="I20">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J20">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>80.471891</v>
+      </c>
+      <c r="N20">
+        <v>241.415673</v>
+      </c>
+      <c r="O20">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="P20">
+        <v>0.2228667096514236</v>
+      </c>
+      <c r="Q20">
+        <v>67.76436010048066</v>
+      </c>
+      <c r="R20">
+        <v>609.879240904326</v>
+      </c>
+      <c r="S20">
+        <v>0.05028014793611453</v>
+      </c>
+      <c r="T20">
+        <v>0.05028014793611453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H21">
+        <v>2.526262</v>
+      </c>
+      <c r="I21">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J21">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>159.017985</v>
+      </c>
+      <c r="N21">
+        <v>477.053955</v>
+      </c>
+      <c r="O21">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="P21">
+        <v>0.4403999291174782</v>
+      </c>
+      <c r="Q21">
+        <v>133.90703094069</v>
+      </c>
+      <c r="R21">
+        <v>1205.16327846621</v>
+      </c>
+      <c r="S21">
+        <v>0.09935702654611213</v>
+      </c>
+      <c r="T21">
+        <v>0.09935702654611213</v>
       </c>
     </row>
   </sheetData>
